--- a/data/trans_orig/P78C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F4AA88F-3A84-4C6A-9686-037DFBF5EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7015E5C2-D054-4982-8252-BAE16BA9778E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14ECE7DD-FCF2-4BD4-B64D-B8B0F827320E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A47181B-BE83-4E91-BA8F-41927C31D16F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="278">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 4,98%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>72,08%</t>
   </si>
   <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>55,32%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
@@ -131,13 +131,13 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>21,45%</t>
+    <t>23,31%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>32,04%</t>
+    <t>35,99%</t>
   </si>
   <si>
     <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
@@ -155,19 +155,19 @@
     <t>23,35%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -179,585 +179,603 @@
     <t>58,1%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>66,27%</t>
   </si>
   <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>64,37%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
     <t>1,11%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>2,64%</t>
   </si>
   <si>
@@ -767,49 +785,49 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>5,47%</t>
@@ -818,37 +836,37 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1263,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522C7CC1-7ACA-4F3B-A5B6-FC88187DFE32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF987F5A-D234-40E7-A119-86C5B4AAE838}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2378,10 +2396,10 @@
         <v>58</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2390,13 +2408,13 @@
         <v>2253</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2429,13 @@
         <v>5170</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2426,13 +2444,13 @@
         <v>4973</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2441,13 +2459,13 @@
         <v>10143</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2480,13 @@
         <v>3627</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2477,13 +2495,13 @@
         <v>3944</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2492,13 +2510,13 @@
         <v>7571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,7 +2537,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -2528,13 +2546,13 @@
         <v>18812</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2543,13 +2561,13 @@
         <v>20880</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,7 +2623,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2617,13 +2635,13 @@
         <v>22321</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -2632,13 +2650,13 @@
         <v>44782</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -2647,13 +2665,13 @@
         <v>67103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2686,13 @@
         <v>2100</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2683,13 +2701,13 @@
         <v>2602</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2698,13 +2716,13 @@
         <v>4703</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,7 +2743,7 @@
         <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2740,7 +2758,7 @@
         <v>21</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2755,7 +2773,7 @@
         <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2794,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2785,13 +2803,13 @@
         <v>159</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2800,13 +2818,13 @@
         <v>159</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2836,13 +2854,13 @@
         <v>2641</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2851,13 +2869,13 @@
         <v>2641</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2896,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2887,13 +2905,13 @@
         <v>2016</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -2902,13 +2920,13 @@
         <v>2016</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2941,13 @@
         <v>3724</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -2938,13 +2956,13 @@
         <v>3388</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -2953,13 +2971,13 @@
         <v>7112</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,7 +3033,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3027,13 +3045,13 @@
         <v>18748</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H36" s="7">
         <v>62</v>
@@ -3042,13 +3060,13 @@
         <v>49308</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M36" s="7">
         <v>76</v>
@@ -3057,13 +3075,13 @@
         <v>68055</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3096,13 @@
         <v>4284</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -3093,13 +3111,13 @@
         <v>7834</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -3108,13 +3126,13 @@
         <v>12118</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3147,13 @@
         <v>1312</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3150,7 +3168,7 @@
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -3159,13 +3177,13 @@
         <v>1312</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,7 +3204,7 @@
         <v>21</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3195,13 +3213,13 @@
         <v>784</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -3210,13 +3228,13 @@
         <v>784</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3249,13 @@
         <v>798</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -3246,13 +3264,13 @@
         <v>2960</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -3261,13 +3279,13 @@
         <v>3758</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3300,13 @@
         <v>1856</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3297,13 +3315,13 @@
         <v>3013</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -3312,13 +3330,13 @@
         <v>4869</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3351,13 @@
         <v>1884</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H42" s="7">
         <v>16</v>
@@ -3348,13 +3366,13 @@
         <v>14441</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M42" s="7">
         <v>18</v>
@@ -3363,13 +3381,13 @@
         <v>16325</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3455,13 @@
         <v>86105</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H44" s="7">
         <v>238</v>
@@ -3452,13 +3470,13 @@
         <v>195204</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M44" s="7">
         <v>290</v>
@@ -3467,13 +3485,13 @@
         <v>281309</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3506,13 @@
         <v>8260</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H45" s="7">
         <v>15</v>
@@ -3503,13 +3521,13 @@
         <v>12371</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M45" s="7">
         <v>21</v>
@@ -3518,13 +3536,13 @@
         <v>20630</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3557,13 @@
         <v>1312</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3560,7 +3578,7 @@
         <v>21</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3569,13 +3587,13 @@
         <v>1312</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3614,7 @@
         <v>21</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3605,13 +3623,13 @@
         <v>3196</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -3620,13 +3638,13 @@
         <v>3196</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3659,13 @@
         <v>12008</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H48" s="7">
         <v>20</v>
@@ -3656,13 +3674,13 @@
         <v>16656</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M48" s="7">
         <v>31</v>
@@ -3671,13 +3689,13 @@
         <v>28664</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3710,13 @@
         <v>5483</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H49" s="7">
         <v>13</v>
@@ -3707,13 +3725,13 @@
         <v>8973</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M49" s="7">
         <v>17</v>
@@ -3722,13 +3740,13 @@
         <v>14456</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3761,13 @@
         <v>13771</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H50" s="7">
         <v>59</v>
@@ -3758,13 +3776,13 @@
         <v>50472</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M50" s="7">
         <v>70</v>
@@ -3773,13 +3791,13 @@
         <v>64243</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3853,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7015E5C2-D054-4982-8252-BAE16BA9778E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A748461-A795-4527-A3E5-2C9E983D7167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A47181B-BE83-4E91-BA8F-41927C31D16F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C98AA2B0-0754-4EE0-B443-EF0A5C549CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Otro asalariado</t>
@@ -173,7 +173,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>58,1%</t>
@@ -278,7 +278,7 @@
     <t>26,96%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>71,8%</t>
@@ -416,7 +416,7 @@
     <t>25,77%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>79,31%</t>
@@ -1281,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF987F5A-D234-40E7-A119-86C5B4AAE838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0EE197-D05E-4809-BB0D-CAA3BE8B5B03}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A748461-A795-4527-A3E5-2C9E983D7167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74EF35D-E1D6-4D45-985B-3E5B0B43ABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C98AA2B0-0754-4EE0-B443-EF0A5C549CB0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D17C7790-6ACA-4276-A7D8-690526F4D612}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="278">
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 4,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="326">
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba la persona sustentadora principal en 2023 (Tasa respuesta: 83,48%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,802 +71,946 @@
     <t>TRABAJADOR POR CUENTA AJENA Otro asalariado</t>
   </si>
   <si>
-    <t>34,06%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1281,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0EE197-D05E-4809-BB0D-CAA3BE8B5B03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5393E6-325B-437F-B4FF-D975E94DD2F6}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1399,10 +1543,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>2514</v>
+        <v>59249</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1414,10 +1558,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="I4" s="7">
-        <v>6750</v>
+        <v>79409</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1429,10 +1573,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="N4" s="7">
-        <v>9264</v>
+        <v>138658</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1456,49 +1600,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1507,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1522,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1537,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1558,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1573,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1588,70 +1732,70 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>982</v>
+        <v>5866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>428</v>
+        <v>1965</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>1411</v>
+        <v>7830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1660,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1675,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1690,64 +1834,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>3886</v>
+        <v>28986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>2186</v>
+        <v>12872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>6072</v>
+        <v>41858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,102 +1900,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>7382</v>
+        <v>94101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="I11" s="7">
-        <v>9365</v>
+        <v>94829</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="N11" s="7">
-        <v>16747</v>
+        <v>188930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>409</v>
       </c>
       <c r="D12" s="7">
-        <v>10078</v>
+        <v>359745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
-        <v>48</v>
+        <v>642</v>
       </c>
       <c r="I12" s="7">
-        <v>37788</v>
+        <v>383081</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
-        <v>55</v>
+        <v>1051</v>
       </c>
       <c r="N12" s="7">
-        <v>47866</v>
+        <v>742826</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,304 +2004,304 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>23325</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
       <c r="I13" s="7">
-        <v>1934</v>
+        <v>6435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>1934</v>
+        <v>29761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>6910</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>7070</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>5058</v>
+        <v>29127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>5653</v>
+        <v>16206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>10712</v>
+        <v>45333</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3733</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>5889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D18" s="7">
-        <v>2209</v>
+        <v>87677</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I18" s="7">
-        <v>11645</v>
+        <v>66611</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="N18" s="7">
-        <v>13853</v>
+        <v>154289</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,102 +2310,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>591</v>
       </c>
       <c r="D19" s="7">
-        <v>17345</v>
+        <v>511230</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
-        <v>74</v>
+        <v>797</v>
       </c>
       <c r="I19" s="7">
-        <v>57020</v>
+        <v>475144</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M19" s="7">
-        <v>88</v>
+        <v>1388</v>
       </c>
       <c r="N19" s="7">
-        <v>74365</v>
+        <v>986374</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>628</v>
       </c>
       <c r="D20" s="7">
-        <v>32445</v>
+        <v>624873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>66</v>
+        <v>914</v>
       </c>
       <c r="I20" s="7">
-        <v>56576</v>
+        <v>621845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>84</v>
+        <v>1542</v>
       </c>
       <c r="N20" s="7">
-        <v>89021</v>
+        <v>1246718</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,55 +2414,55 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D21" s="7">
-        <v>1876</v>
+        <v>82352</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>33206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="N21" s="7">
-        <v>1876</v>
+        <v>115557</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2327,166 +2471,166 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>55487</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>2253</v>
+        <v>7187</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N23" s="7">
-        <v>2253</v>
+        <v>62674</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>5170</v>
+        <v>49987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>4973</v>
+        <v>23266</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="N24" s="7">
-        <v>10143</v>
+        <v>73252</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>3627</v>
+        <v>15442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2495,79 +2639,79 @@
         <v>3944</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>7571</v>
+        <v>19386</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="D26" s="7">
-        <v>2069</v>
+        <v>117083</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="I26" s="7">
-        <v>18812</v>
+        <v>98608</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="N26" s="7">
-        <v>20880</v>
+        <v>215691</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,102 +2720,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>28</v>
+        <v>909</v>
       </c>
       <c r="D27" s="7">
-        <v>45186</v>
+        <v>945224</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
-        <v>97</v>
+        <v>1150</v>
       </c>
       <c r="I27" s="7">
-        <v>86557</v>
+        <v>789482</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
-        <v>125</v>
+        <v>2059</v>
       </c>
       <c r="N27" s="7">
-        <v>131743</v>
+        <v>1734706</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>476</v>
       </c>
       <c r="D28" s="7">
-        <v>22321</v>
+        <v>504086</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="H28" s="7">
-        <v>53</v>
+        <v>669</v>
       </c>
       <c r="I28" s="7">
-        <v>44782</v>
+        <v>592931</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
-        <v>64</v>
+        <v>1145</v>
       </c>
       <c r="N28" s="7">
-        <v>67103</v>
+        <v>1097017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,304 +2824,304 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7">
-        <v>2100</v>
+        <v>52196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I29" s="7">
-        <v>2602</v>
+        <v>19874</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="N29" s="7">
-        <v>4703</v>
+        <v>72070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>7334</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>2634</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>9968</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>8596</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>159</v>
+        <v>1716</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N31" s="7">
-        <v>159</v>
+        <v>10311</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>14487</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I32" s="7">
-        <v>2641</v>
+        <v>10665</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="N32" s="7">
-        <v>2641</v>
+        <v>25153</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>8756</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="H33" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I33" s="7">
-        <v>2016</v>
+        <v>4022</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="M33" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N33" s="7">
-        <v>2016</v>
+        <v>12778</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D34" s="7">
-        <v>3724</v>
+        <v>67092</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="I34" s="7">
-        <v>3388</v>
+        <v>45013</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="M34" s="7">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="N34" s="7">
-        <v>7112</v>
+        <v>112106</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,102 +3130,102 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>16</v>
+        <v>646</v>
       </c>
       <c r="D35" s="7">
-        <v>28145</v>
+        <v>662546</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H35" s="7">
-        <v>70</v>
+        <v>802</v>
       </c>
       <c r="I35" s="7">
-        <v>55589</v>
+        <v>676856</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M35" s="7">
-        <v>86</v>
+        <v>1448</v>
       </c>
       <c r="N35" s="7">
-        <v>83734</v>
+        <v>1339402</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="7">
-        <v>14</v>
+        <v>660</v>
       </c>
       <c r="D36" s="7">
-        <v>18748</v>
+        <v>610251</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
-        <v>62</v>
+        <v>910</v>
       </c>
       <c r="I36" s="7">
-        <v>49308</v>
+        <v>635157</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="M36" s="7">
-        <v>76</v>
+        <v>1570</v>
       </c>
       <c r="N36" s="7">
-        <v>68055</v>
+        <v>1245408</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,304 +3234,304 @@
         <v>20</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D37" s="7">
-        <v>4284</v>
+        <v>108688</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I37" s="7">
-        <v>7834</v>
+        <v>48596</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M37" s="7">
         <v>185</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M37" s="7">
-        <v>12</v>
-      </c>
       <c r="N37" s="7">
-        <v>12118</v>
+        <v>157284</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7">
-        <v>1312</v>
+        <v>8906</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
+        <v>1994</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N38" s="7">
-        <v>1312</v>
+        <v>10899</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>12123</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="H39" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I39" s="7">
-        <v>784</v>
+        <v>10954</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="M39" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N39" s="7">
-        <v>784</v>
+        <v>23077</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C40" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D40" s="7">
-        <v>798</v>
+        <v>23133</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="H40" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I40" s="7">
-        <v>2960</v>
+        <v>30591</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="M40" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="N40" s="7">
-        <v>3758</v>
+        <v>53723</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C41" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D41" s="7">
-        <v>1856</v>
+        <v>15147</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="H41" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I41" s="7">
-        <v>3013</v>
+        <v>5197</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="M41" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N41" s="7">
-        <v>4869</v>
+        <v>20343</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C42" s="7">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D42" s="7">
-        <v>1884</v>
+        <v>93671</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="H42" s="7">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I42" s="7">
-        <v>14441</v>
+        <v>89563</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="M42" s="7">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="N42" s="7">
-        <v>16325</v>
+        <v>183235</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,49 +3540,49 @@
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>22</v>
+        <v>951</v>
       </c>
       <c r="D43" s="7">
-        <v>28881</v>
+        <v>871919</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" s="7">
-        <v>95</v>
+        <v>1163</v>
       </c>
       <c r="I43" s="7">
-        <v>78340</v>
+        <v>822051</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M43" s="7">
-        <v>117</v>
+        <v>2114</v>
       </c>
       <c r="N43" s="7">
-        <v>107221</v>
+        <v>1693970</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,49 +3593,49 @@
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>52</v>
+        <v>2246</v>
       </c>
       <c r="D44" s="7">
-        <v>86105</v>
+        <v>2158205</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="H44" s="7">
-        <v>238</v>
+        <v>3281</v>
       </c>
       <c r="I44" s="7">
-        <v>195204</v>
+        <v>2312421</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="M44" s="7">
-        <v>290</v>
+        <v>5527</v>
       </c>
       <c r="N44" s="7">
-        <v>281309</v>
+        <v>4470626</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,304 +3644,304 @@
         <v>20</v>
       </c>
       <c r="C45" s="7">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="D45" s="7">
-        <v>8260</v>
+        <v>266561</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="H45" s="7">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I45" s="7">
-        <v>12371</v>
+        <v>108695</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="M45" s="7">
-        <v>21</v>
+        <v>430</v>
       </c>
       <c r="N45" s="7">
-        <v>20630</v>
+        <v>375255</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C46" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D46" s="7">
-        <v>1312</v>
+        <v>16952</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>6550</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="M46" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N46" s="7">
-        <v>1312</v>
+        <v>23501</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>83116</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="H47" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I47" s="7">
-        <v>3196</v>
+        <v>20017</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="M47" s="7">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="N47" s="7">
-        <v>3196</v>
+        <v>103133</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="7">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="D48" s="7">
-        <v>12008</v>
+        <v>122600</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H48" s="7">
+        <v>105</v>
+      </c>
+      <c r="I48" s="7">
+        <v>82692</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M48" s="7">
         <v>250</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H48" s="7">
-        <v>20</v>
-      </c>
-      <c r="I48" s="7">
-        <v>16656</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M48" s="7">
-        <v>31</v>
-      </c>
       <c r="N48" s="7">
-        <v>28664</v>
+        <v>205292</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C49" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D49" s="7">
-        <v>5483</v>
+        <v>43077</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="H49" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I49" s="7">
-        <v>8973</v>
+        <v>15319</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="M49" s="7">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N49" s="7">
-        <v>14456</v>
+        <v>58396</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C50" s="7">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="D50" s="7">
-        <v>13771</v>
+        <v>394510</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="H50" s="7">
-        <v>59</v>
+        <v>489</v>
       </c>
       <c r="I50" s="7">
-        <v>50472</v>
+        <v>312668</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="M50" s="7">
-        <v>70</v>
+        <v>930</v>
       </c>
       <c r="N50" s="7">
-        <v>64243</v>
+        <v>707178</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,54 +3950,54 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>85</v>
+        <v>3210</v>
       </c>
       <c r="D51" s="7">
-        <v>126939</v>
+        <v>3085020</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H51" s="7">
-        <v>350</v>
+        <v>4089</v>
       </c>
       <c r="I51" s="7">
-        <v>286871</v>
+        <v>2858361</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M51" s="7">
-        <v>435</v>
+        <v>7299</v>
       </c>
       <c r="N51" s="7">
-        <v>413810</v>
+        <v>5943381</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
